--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R5f3a66dd39514f2c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R966bc57712874342"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R966bc57712874342"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="Rb88feb059c5b4bfe"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="Rb88feb059c5b4bfe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R612da3acf28d45a5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R612da3acf28d45a5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="Rea031ac6668c4ff9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="Rea031ac6668c4ff9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R490dbbea8f604a29"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R490dbbea8f604a29"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="Rda74b1f74fa94edc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="Rda74b1f74fa94edc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="Rffdf8d6746204b76"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="Rffdf8d6746204b76"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R672fdf19e46d4881"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R672fdf19e46d4881"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="Race9fa1affd542a4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="Race9fa1affd542a4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R73d96f9769e44f21"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R73d96f9769e44f21"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="Rc90895a0fefb4c73"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/78_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="Rc90895a0fefb4c73"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="Rbbae333c910d4a10"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
